--- a/May23/TDS_ON_ENTIRE_VALUE_AT_10_PERCENT /entire_value_at_10_percentage.xlsx
+++ b/May23/TDS_ON_ENTIRE_VALUE_AT_10_PERCENT /entire_value_at_10_percentage.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="bill" sheetId="1" r:id="rId1"/>
     <sheet name="payment" sheetId="2" r:id="rId2"/>
+    <sheet name="summary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="373">
   <si>
     <t>bill_id</t>
   </si>
@@ -795,6 +796,15 @@
   </si>
   <si>
     <t>(&gt; 365 days )</t>
+  </si>
+  <si>
+    <t>Sum of Inv Amount</t>
+  </si>
+  <si>
+    <t>total_tds</t>
+  </si>
+  <si>
+    <t>Sum of amount_after_tds</t>
   </si>
   <si>
     <t>residue</t>
@@ -1131,6 +1141,9 @@
   </si>
   <si>
     <t>183,178,184,170,177,176,185,175,187</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -9829,13 +9842,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:T72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -9884,8 +9897,17 @@
       <c r="Q1" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9896,13 +9918,13 @@
         <v>42674</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G2" t="s">
         <v>202</v>
@@ -9914,16 +9936,25 @@
         <v>1894</v>
       </c>
       <c r="J2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P2">
         <v>1894</v>
       </c>
       <c r="Q2">
+        <v>1819.56</v>
+      </c>
+      <c r="R2">
+        <v>181.956</v>
+      </c>
+      <c r="S2">
+        <v>1637.604</v>
+      </c>
+      <c r="T2">
         <v>256.396</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9934,13 +9965,13 @@
         <v>42674</v>
       </c>
       <c r="D3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G3" t="s">
         <v>202</v>
@@ -9957,8 +9988,17 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9969,34 +10009,43 @@
         <v>42782</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G4" t="s">
         <v>203</v>
       </c>
       <c r="H4" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="I4">
         <v>6577</v>
       </c>
       <c r="J4" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P4">
         <v>6577</v>
       </c>
       <c r="Q4">
+        <v>4380</v>
+      </c>
+      <c r="R4">
+        <v>438</v>
+      </c>
+      <c r="S4">
+        <v>3942</v>
+      </c>
+      <c r="T4">
         <v>2635</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -10007,13 +10056,13 @@
         <v>42824</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G5" t="s">
         <v>203</v>
@@ -10025,16 +10074,25 @@
         <v>694722</v>
       </c>
       <c r="J5" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P5">
         <v>694722</v>
       </c>
       <c r="Q5">
+        <v>481778</v>
+      </c>
+      <c r="R5">
+        <v>48177.8</v>
+      </c>
+      <c r="S5">
+        <v>433600.2</v>
+      </c>
+      <c r="T5">
         <v>261121.8</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -10045,13 +10103,13 @@
         <v>42825</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E6" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F6" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G6" t="s">
         <v>203</v>
@@ -10063,16 +10121,25 @@
         <v>329406</v>
       </c>
       <c r="J6" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="O6">
         <v>329406</v>
       </c>
       <c r="Q6">
+        <v>137755</v>
+      </c>
+      <c r="R6">
+        <v>13775.5</v>
+      </c>
+      <c r="S6">
+        <v>123979.5</v>
+      </c>
+      <c r="T6">
         <v>205426.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -10083,13 +10150,13 @@
         <v>42825</v>
       </c>
       <c r="D7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G7" t="s">
         <v>203</v>
@@ -10106,8 +10173,17 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -10118,13 +10194,13 @@
         <v>42852</v>
       </c>
       <c r="D8" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F8" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G8" t="s">
         <v>203</v>
@@ -10141,8 +10217,17 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -10153,19 +10238,19 @@
         <v>42853</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E9" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F9" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G9" t="s">
         <v>203</v>
       </c>
       <c r="H9" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="I9">
         <v>24966</v>
@@ -10176,8 +10261,17 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -10188,13 +10282,13 @@
         <v>42853</v>
       </c>
       <c r="D10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E10" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F10" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G10" t="s">
         <v>203</v>
@@ -10211,8 +10305,17 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -10223,13 +10326,13 @@
         <v>42866</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E11" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F11" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G11" t="s">
         <v>203</v>
@@ -10241,16 +10344,25 @@
         <v>1017</v>
       </c>
       <c r="J11" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="O11">
         <v>1017</v>
       </c>
       <c r="Q11">
+        <v>194</v>
+      </c>
+      <c r="R11">
+        <v>19.4</v>
+      </c>
+      <c r="S11">
+        <v>174.6</v>
+      </c>
+      <c r="T11">
         <v>842.4</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -10261,13 +10373,13 @@
         <v>42872</v>
       </c>
       <c r="D12" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E12" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F12" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G12" t="s">
         <v>203</v>
@@ -10284,8 +10396,17 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -10296,13 +10417,13 @@
         <v>42872</v>
       </c>
       <c r="D13" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E13" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F13" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G13" t="s">
         <v>203</v>
@@ -10319,8 +10440,17 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -10331,13 +10461,13 @@
         <v>42886</v>
       </c>
       <c r="D14" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E14" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F14" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G14" t="s">
         <v>203</v>
@@ -10349,16 +10479,25 @@
         <v>34596</v>
       </c>
       <c r="J14" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="O14">
         <v>34596</v>
       </c>
       <c r="Q14">
+        <v>12704</v>
+      </c>
+      <c r="R14">
+        <v>1270.4</v>
+      </c>
+      <c r="S14">
+        <v>11433.6</v>
+      </c>
+      <c r="T14">
         <v>23162.4</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -10369,13 +10508,13 @@
         <v>42886</v>
       </c>
       <c r="D15" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E15" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F15" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G15" t="s">
         <v>203</v>
@@ -10392,8 +10531,17 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -10404,13 +10552,13 @@
         <v>42900</v>
       </c>
       <c r="D16" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E16" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F16" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G16" t="s">
         <v>203</v>
@@ -10422,16 +10570,25 @@
         <v>521</v>
       </c>
       <c r="J16" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="O16">
         <v>521</v>
       </c>
       <c r="Q16">
+        <v>194</v>
+      </c>
+      <c r="R16">
+        <v>19.4</v>
+      </c>
+      <c r="S16">
+        <v>174.6</v>
+      </c>
+      <c r="T16">
         <v>346.4</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10442,13 +10599,13 @@
         <v>42914</v>
       </c>
       <c r="D17" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E17" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F17" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G17" t="s">
         <v>203</v>
@@ -10460,16 +10617,25 @@
         <v>371720</v>
       </c>
       <c r="J17" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="O17">
         <v>371720</v>
       </c>
       <c r="Q17">
+        <v>341793</v>
+      </c>
+      <c r="R17">
+        <v>34179.3</v>
+      </c>
+      <c r="S17">
+        <v>307613.7</v>
+      </c>
+      <c r="T17">
         <v>64106.29999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10480,13 +10646,13 @@
         <v>42916</v>
       </c>
       <c r="D18" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E18" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F18" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G18" t="s">
         <v>203</v>
@@ -10498,16 +10664,25 @@
         <v>729</v>
       </c>
       <c r="J18" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O18">
         <v>729</v>
       </c>
       <c r="Q18">
+        <v>799</v>
+      </c>
+      <c r="R18">
+        <v>79.89999999999999</v>
+      </c>
+      <c r="S18">
+        <v>719.0999999999999</v>
+      </c>
+      <c r="T18">
         <v>9.899999999999807</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -10518,13 +10693,13 @@
         <v>42919</v>
       </c>
       <c r="D19" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E19" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G19" t="s">
         <v>203</v>
@@ -10536,16 +10711,25 @@
         <v>4530</v>
       </c>
       <c r="J19" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="O19">
         <v>4530</v>
       </c>
       <c r="Q19">
+        <v>4678</v>
+      </c>
+      <c r="R19">
+        <v>467.8</v>
+      </c>
+      <c r="S19">
+        <v>4210.2</v>
+      </c>
+      <c r="T19">
         <v>319.7999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -10556,13 +10740,13 @@
         <v>42919</v>
       </c>
       <c r="D20" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E20" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F20" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G20" t="s">
         <v>203</v>
@@ -10579,8 +10763,17 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -10591,13 +10784,13 @@
         <v>42937</v>
       </c>
       <c r="D21" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E21" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F21" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G21" t="s">
         <v>203</v>
@@ -10614,8 +10807,17 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -10626,13 +10828,13 @@
         <v>42978</v>
       </c>
       <c r="D22" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E22" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F22" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G22" t="s">
         <v>202</v>
@@ -10649,8 +10851,17 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -10661,13 +10872,13 @@
         <v>42991</v>
       </c>
       <c r="D23" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E23" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F23" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G23" t="s">
         <v>202</v>
@@ -10679,16 +10890,25 @@
         <v>1448510</v>
       </c>
       <c r="J23" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="O23">
         <v>1448510</v>
       </c>
       <c r="Q23">
+        <v>1488821</v>
+      </c>
+      <c r="R23">
+        <v>148882.1</v>
+      </c>
+      <c r="S23">
+        <v>1339938.9</v>
+      </c>
+      <c r="T23">
         <v>108571.0999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -10699,13 +10919,13 @@
         <v>42991</v>
       </c>
       <c r="D24" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E24" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F24" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G24" t="s">
         <v>202</v>
@@ -10717,16 +10937,25 @@
         <v>1448510</v>
       </c>
       <c r="J24" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="O24">
         <v>1448510</v>
       </c>
       <c r="Q24">
+        <v>1516222</v>
+      </c>
+      <c r="R24">
+        <v>151622.2</v>
+      </c>
+      <c r="S24">
+        <v>1364599.8</v>
+      </c>
+      <c r="T24">
         <v>83910.20000000013</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -10737,13 +10966,13 @@
         <v>42991</v>
       </c>
       <c r="D25" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E25" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F25" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G25" t="s">
         <v>202</v>
@@ -10760,8 +10989,17 @@
       <c r="Q25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -10772,13 +11010,13 @@
         <v>42991</v>
       </c>
       <c r="D26" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E26" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F26" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G26" t="s">
         <v>202</v>
@@ -10795,8 +11033,17 @@
       <c r="Q26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -10807,13 +11054,13 @@
         <v>42991</v>
       </c>
       <c r="D27" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E27" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F27" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G27" t="s">
         <v>202</v>
@@ -10830,8 +11077,17 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -10842,13 +11098,13 @@
         <v>42991</v>
       </c>
       <c r="D28" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E28" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F28" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G28" t="s">
         <v>202</v>
@@ -10865,8 +11121,17 @@
       <c r="Q28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -10877,13 +11142,13 @@
         <v>42991</v>
       </c>
       <c r="D29" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E29" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F29" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G29" t="s">
         <v>202</v>
@@ -10900,8 +11165,17 @@
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -10912,13 +11186,13 @@
         <v>43097</v>
       </c>
       <c r="D30" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E30" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F30" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G30" t="s">
         <v>202</v>
@@ -10935,8 +11209,17 @@
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -10947,34 +11230,43 @@
         <v>43159</v>
       </c>
       <c r="D31" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E31" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F31" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G31" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H31" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I31">
         <v>23015</v>
       </c>
       <c r="J31" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L31">
         <v>23015</v>
       </c>
       <c r="Q31">
+        <v>25496.81</v>
+      </c>
+      <c r="R31">
+        <v>2549.681</v>
+      </c>
+      <c r="S31">
+        <v>22947.129</v>
+      </c>
+      <c r="T31">
         <v>67.87099999999964</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:20">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -10985,34 +11277,43 @@
         <v>43159</v>
       </c>
       <c r="D32" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E32" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F32" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G32" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H32" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I32">
         <v>2439</v>
       </c>
       <c r="J32" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L32">
         <v>2439</v>
       </c>
       <c r="Q32">
+        <v>2208.8</v>
+      </c>
+      <c r="R32">
+        <v>220.88</v>
+      </c>
+      <c r="S32">
+        <v>1987.92</v>
+      </c>
+      <c r="T32">
         <v>451.08</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:20">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -11023,19 +11324,19 @@
         <v>43159</v>
       </c>
       <c r="D33" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E33" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F33" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G33" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H33" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I33">
         <v>581</v>
@@ -11046,8 +11347,17 @@
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -11058,34 +11368,43 @@
         <v>43159</v>
       </c>
       <c r="D34" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E34" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F34" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G34" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H34" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I34">
         <v>535</v>
       </c>
       <c r="J34" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L34">
         <v>535</v>
       </c>
       <c r="Q34">
+        <v>339.84</v>
+      </c>
+      <c r="R34">
+        <v>33.98399999999999</v>
+      </c>
+      <c r="S34">
+        <v>305.856</v>
+      </c>
+      <c r="T34">
         <v>229.144</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:20">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -11096,34 +11415,43 @@
         <v>43159</v>
       </c>
       <c r="D35" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E35" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F35" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G35" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H35" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I35">
         <v>378</v>
       </c>
       <c r="J35" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L35">
         <v>378</v>
       </c>
       <c r="Q35">
+        <v>339.8</v>
+      </c>
+      <c r="R35">
+        <v>33.98</v>
+      </c>
+      <c r="S35">
+        <v>305.82</v>
+      </c>
+      <c r="T35">
         <v>72.18000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:20">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -11134,19 +11462,19 @@
         <v>43159</v>
       </c>
       <c r="D36" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E36" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F36" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G36" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H36" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I36">
         <v>165</v>
@@ -11157,8 +11485,17 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -11169,34 +11506,43 @@
         <v>43160</v>
       </c>
       <c r="D37" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E37" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F37" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G37" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H37" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I37">
         <v>453316</v>
       </c>
       <c r="J37" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K37">
         <v>453316</v>
       </c>
       <c r="Q37">
+        <v>171624.76</v>
+      </c>
+      <c r="R37">
+        <v>17162.476</v>
+      </c>
+      <c r="S37">
+        <v>154462.284</v>
+      </c>
+      <c r="T37">
         <v>298853.7160000001</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:20">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -11207,34 +11553,43 @@
         <v>43160</v>
       </c>
       <c r="D38" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E38" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F38" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G38" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H38" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I38">
         <v>450520</v>
       </c>
       <c r="J38" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K38">
         <v>450520</v>
       </c>
       <c r="Q38">
+        <v>417207</v>
+      </c>
+      <c r="R38">
+        <v>41720.7</v>
+      </c>
+      <c r="S38">
+        <v>375486.3</v>
+      </c>
+      <c r="T38">
         <v>75033.70000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:20">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -11245,34 +11600,43 @@
         <v>43160</v>
       </c>
       <c r="D39" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E39" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F39" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G39" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I39">
         <v>445875</v>
       </c>
       <c r="J39" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K39">
         <v>445875</v>
       </c>
       <c r="Q39">
+        <v>396979.14</v>
+      </c>
+      <c r="R39">
+        <v>39697.914</v>
+      </c>
+      <c r="S39">
+        <v>357281.226</v>
+      </c>
+      <c r="T39">
         <v>88593.77399999998</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:20">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -11283,19 +11647,19 @@
         <v>43160</v>
       </c>
       <c r="D40" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E40" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F40" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G40" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H40" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I40">
         <v>128731</v>
@@ -11306,8 +11670,17 @@
       <c r="Q40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -11318,19 +11691,19 @@
         <v>43160</v>
       </c>
       <c r="D41" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E41" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F41" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G41" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H41" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I41">
         <v>98514</v>
@@ -11341,8 +11714,17 @@
       <c r="Q41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -11353,19 +11735,19 @@
         <v>43160</v>
       </c>
       <c r="D42" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E42" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F42" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G42" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H42" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I42">
         <v>8836</v>
@@ -11376,8 +11758,17 @@
       <c r="Q42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -11388,19 +11779,19 @@
         <v>43160</v>
       </c>
       <c r="D43" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E43" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F43" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G43" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H43" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I43">
         <v>4304</v>
@@ -11411,8 +11802,17 @@
       <c r="Q43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -11423,19 +11823,19 @@
         <v>43160</v>
       </c>
       <c r="D44" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E44" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F44" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G44" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H44" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I44">
         <v>2477</v>
@@ -11446,8 +11846,17 @@
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -11458,19 +11867,19 @@
         <v>43160</v>
       </c>
       <c r="D45" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E45" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F45" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G45" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H45" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I45">
         <v>535</v>
@@ -11481,8 +11890,17 @@
       <c r="Q45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -11493,19 +11911,19 @@
         <v>43160</v>
       </c>
       <c r="D46" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E46" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F46" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G46" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H46" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I46">
         <v>535</v>
@@ -11516,8 +11934,17 @@
       <c r="Q46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -11528,19 +11955,19 @@
         <v>43160</v>
       </c>
       <c r="D47" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E47" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F47" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G47" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H47" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I47">
         <v>535</v>
@@ -11551,8 +11978,17 @@
       <c r="Q47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -11563,19 +11999,19 @@
         <v>43160</v>
       </c>
       <c r="D48" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E48" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F48" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G48" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H48" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I48">
         <v>134</v>
@@ -11586,8 +12022,17 @@
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -11598,19 +12043,19 @@
         <v>43160</v>
       </c>
       <c r="D49" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E49" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F49" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G49" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H49" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I49">
         <v>67</v>
@@ -11621,8 +12066,17 @@
       <c r="Q49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -11633,34 +12087,43 @@
         <v>43172</v>
       </c>
       <c r="D50" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E50" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F50" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G50" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H50" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I50">
         <v>1741436</v>
       </c>
       <c r="J50" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K50">
         <v>1741436</v>
       </c>
       <c r="Q50">
+        <v>1796783.46</v>
+      </c>
+      <c r="R50">
+        <v>179678.346</v>
+      </c>
+      <c r="S50">
+        <v>1617105.114</v>
+      </c>
+      <c r="T50">
         <v>124330.8859999996</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:20">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -11671,19 +12134,19 @@
         <v>43173</v>
       </c>
       <c r="D51" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E51" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F51" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G51" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H51" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I51">
         <v>9459</v>
@@ -11694,8 +12157,17 @@
       <c r="Q51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -11706,19 +12178,19 @@
         <v>43174</v>
       </c>
       <c r="D52" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E52" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F52" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G52" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H52" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I52">
         <v>1211</v>
@@ -11729,8 +12201,17 @@
       <c r="Q52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -11741,19 +12222,19 @@
         <v>43185</v>
       </c>
       <c r="D53" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E53" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F53" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G53" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H53" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I53">
         <v>438936</v>
@@ -11764,8 +12245,17 @@
       <c r="Q53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -11776,34 +12266,43 @@
         <v>43185</v>
       </c>
       <c r="D54" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E54" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F54" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G54" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H54" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I54">
         <v>433997</v>
       </c>
       <c r="J54" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K54">
         <v>433997</v>
       </c>
       <c r="Q54">
+        <v>405341.56</v>
+      </c>
+      <c r="R54">
+        <v>40534.156</v>
+      </c>
+      <c r="S54">
+        <v>364807.404</v>
+      </c>
+      <c r="T54">
         <v>69189.59599999999</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:20">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -11814,34 +12313,43 @@
         <v>43185</v>
       </c>
       <c r="D55" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E55" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F55" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G55" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H55" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I55">
         <v>83906</v>
       </c>
       <c r="J55" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K55">
         <v>83906</v>
       </c>
       <c r="Q55">
+        <v>79843.64</v>
+      </c>
+      <c r="R55">
+        <v>7984.364</v>
+      </c>
+      <c r="S55">
+        <v>71859.27600000001</v>
+      </c>
+      <c r="T55">
         <v>12046.72400000003</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:20">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -11852,19 +12360,19 @@
         <v>43185</v>
       </c>
       <c r="D56" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E56" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F56" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G56" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H56" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I56">
         <v>76568</v>
@@ -11875,8 +12383,17 @@
       <c r="Q56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -11887,34 +12404,43 @@
         <v>43185</v>
       </c>
       <c r="D57" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E57" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F57" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G57" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H57" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I57">
         <v>4418</v>
       </c>
       <c r="J57" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="K57">
         <v>4418</v>
       </c>
       <c r="Q57">
+        <v>4729.44</v>
+      </c>
+      <c r="R57">
+        <v>472.944</v>
+      </c>
+      <c r="S57">
+        <v>4256.495999999999</v>
+      </c>
+      <c r="T57">
         <v>161.5040000000008</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:20">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -11925,34 +12451,43 @@
         <v>43185</v>
       </c>
       <c r="D58" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E58" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F58" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G58" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H58" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I58">
         <v>4418</v>
       </c>
       <c r="J58" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K58">
         <v>4418</v>
       </c>
       <c r="Q58">
+        <v>4729.44</v>
+      </c>
+      <c r="R58">
+        <v>472.944</v>
+      </c>
+      <c r="S58">
+        <v>4256.495999999999</v>
+      </c>
+      <c r="T58">
         <v>161.5040000000008</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:20">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -11963,34 +12498,43 @@
         <v>43185</v>
       </c>
       <c r="D59" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E59" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F59" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G59" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H59" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I59">
         <v>4418</v>
       </c>
       <c r="J59" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K59">
         <v>4418</v>
       </c>
       <c r="Q59">
+        <v>4214.01</v>
+      </c>
+      <c r="R59">
+        <v>421.401</v>
+      </c>
+      <c r="S59">
+        <v>3792.609</v>
+      </c>
+      <c r="T59">
         <v>625.3909999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:20">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -12001,34 +12545,43 @@
         <v>43185</v>
       </c>
       <c r="D60" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E60" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F60" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G60" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H60" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I60">
         <v>4418</v>
       </c>
       <c r="J60" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K60">
         <v>4418</v>
       </c>
       <c r="Q60">
+        <v>3950.62</v>
+      </c>
+      <c r="R60">
+        <v>395.062</v>
+      </c>
+      <c r="S60">
+        <v>3555.558</v>
+      </c>
+      <c r="T60">
         <v>862.442</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:20">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -12039,34 +12592,43 @@
         <v>43185</v>
       </c>
       <c r="D61" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E61" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F61" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G61" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H61" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I61">
         <v>4418</v>
       </c>
       <c r="J61" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K61">
         <v>4418</v>
       </c>
       <c r="Q61">
+        <v>4619.000000000001</v>
+      </c>
+      <c r="R61">
+        <v>461.9</v>
+      </c>
+      <c r="S61">
+        <v>4157.1</v>
+      </c>
+      <c r="T61">
         <v>260.9000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:20">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -12077,34 +12639,43 @@
         <v>43186</v>
       </c>
       <c r="D62" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E62" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F62" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G62" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H62" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I62">
         <v>273441</v>
       </c>
       <c r="J62" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K62">
         <v>273441</v>
       </c>
       <c r="Q62">
+        <v>237898.15</v>
+      </c>
+      <c r="R62">
+        <v>23789.815</v>
+      </c>
+      <c r="S62">
+        <v>214108.335</v>
+      </c>
+      <c r="T62">
         <v>59332.66499999985</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:20">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -12115,34 +12686,43 @@
         <v>43186</v>
       </c>
       <c r="D63" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E63" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F63" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G63" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H63" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I63">
         <v>270936</v>
       </c>
       <c r="J63" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K63">
         <v>270936</v>
       </c>
       <c r="Q63">
+        <v>185566.33</v>
+      </c>
+      <c r="R63">
+        <v>18556.633</v>
+      </c>
+      <c r="S63">
+        <v>167009.697</v>
+      </c>
+      <c r="T63">
         <v>103926.303</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:20">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -12153,19 +12733,19 @@
         <v>43186</v>
       </c>
       <c r="D64" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E64" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F64" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G64" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H64" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I64">
         <v>265368</v>
@@ -12176,8 +12756,17 @@
       <c r="Q64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -12188,19 +12777,19 @@
         <v>43186</v>
       </c>
       <c r="D65" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E65" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F65" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G65" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H65" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I65">
         <v>260728</v>
@@ -12211,8 +12800,17 @@
       <c r="Q65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -12223,34 +12821,43 @@
         <v>43187</v>
       </c>
       <c r="D66" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E66" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F66" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G66" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H66" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I66">
         <v>167839</v>
       </c>
       <c r="J66" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K66">
         <v>167839</v>
       </c>
       <c r="Q66">
+        <v>78137.00999999999</v>
+      </c>
+      <c r="R66">
+        <v>7813.700999999998</v>
+      </c>
+      <c r="S66">
+        <v>70323.30899999999</v>
+      </c>
+      <c r="T66">
         <v>97515.69099999999</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:20">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -12261,34 +12868,43 @@
         <v>43190</v>
       </c>
       <c r="D67" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E67" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F67" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G67" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H67" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I67">
         <v>674146</v>
       </c>
       <c r="J67" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K67">
         <v>674146</v>
       </c>
       <c r="Q67">
+        <v>562537.39</v>
+      </c>
+      <c r="R67">
+        <v>56253.73899999999</v>
+      </c>
+      <c r="S67">
+        <v>506283.651</v>
+      </c>
+      <c r="T67">
         <v>167862.349</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:20">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -12299,19 +12915,19 @@
         <v>43190</v>
       </c>
       <c r="D68" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E68" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F68" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G68" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H68" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I68">
         <v>188434</v>
@@ -12322,8 +12938,17 @@
       <c r="Q68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -12334,19 +12959,19 @@
         <v>43190</v>
       </c>
       <c r="D69" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E69" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F69" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G69" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I69">
         <v>76444</v>
@@ -12357,8 +12982,17 @@
       <c r="Q69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -12369,19 +13003,19 @@
         <v>43190</v>
       </c>
       <c r="D70" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E70" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F70" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G70" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H70" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I70">
         <v>25056</v>
@@ -12392,8 +13026,17 @@
       <c r="Q70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -12404,19 +13047,19 @@
         <v>43190</v>
       </c>
       <c r="D71" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E71" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F71" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G71" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H71" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I71">
         <v>16728</v>
@@ -12427,8 +13070,17 @@
       <c r="Q71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -12439,31 +13091,628 @@
         <v>43220</v>
       </c>
       <c r="D72" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E72" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F72" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G72" t="s">
         <v>202</v>
       </c>
       <c r="H72" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I72">
         <v>10052</v>
       </c>
       <c r="J72" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K72">
         <v>10052</v>
       </c>
       <c r="Q72">
+        <v>8760.290000000001</v>
+      </c>
+      <c r="R72">
+        <v>876.0289999999999</v>
+      </c>
+      <c r="S72">
+        <v>7884.261</v>
+      </c>
+      <c r="T72">
         <v>2167.739000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1819.56</v>
+      </c>
+      <c r="D2">
+        <v>181.956</v>
+      </c>
+      <c r="E2">
+        <v>1637.604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4380</v>
+      </c>
+      <c r="D3">
+        <v>438</v>
+      </c>
+      <c r="E3">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>481778</v>
+      </c>
+      <c r="D4">
+        <v>48177.8</v>
+      </c>
+      <c r="E4">
+        <v>433600.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>137755</v>
+      </c>
+      <c r="D5">
+        <v>13775.5</v>
+      </c>
+      <c r="E5">
+        <v>123979.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>194</v>
+      </c>
+      <c r="D6">
+        <v>19.4</v>
+      </c>
+      <c r="E6">
+        <v>174.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>12704</v>
+      </c>
+      <c r="D7">
+        <v>1270.4</v>
+      </c>
+      <c r="E7">
+        <v>11433.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>194</v>
+      </c>
+      <c r="D8">
+        <v>19.4</v>
+      </c>
+      <c r="E8">
+        <v>174.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>341793</v>
+      </c>
+      <c r="D9">
+        <v>34179.3</v>
+      </c>
+      <c r="E9">
+        <v>307613.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>799</v>
+      </c>
+      <c r="D10">
+        <v>79.89999999999999</v>
+      </c>
+      <c r="E10">
+        <v>719.0999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>4678</v>
+      </c>
+      <c r="D11">
+        <v>467.8</v>
+      </c>
+      <c r="E11">
+        <v>4210.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>1488821</v>
+      </c>
+      <c r="D12">
+        <v>148882.1</v>
+      </c>
+      <c r="E12">
+        <v>1339938.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>1516222</v>
+      </c>
+      <c r="D13">
+        <v>151622.2</v>
+      </c>
+      <c r="E13">
+        <v>1364599.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>25496.81</v>
+      </c>
+      <c r="D14">
+        <v>2549.681</v>
+      </c>
+      <c r="E14">
+        <v>22947.129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>2208.8</v>
+      </c>
+      <c r="D15">
+        <v>220.88</v>
+      </c>
+      <c r="E15">
+        <v>1987.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>339.84</v>
+      </c>
+      <c r="D16">
+        <v>33.98399999999999</v>
+      </c>
+      <c r="E16">
+        <v>305.856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>339.8</v>
+      </c>
+      <c r="D17">
+        <v>33.98</v>
+      </c>
+      <c r="E17">
+        <v>305.82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>171624.76</v>
+      </c>
+      <c r="D18">
+        <v>17162.476</v>
+      </c>
+      <c r="E18">
+        <v>154462.284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>417207</v>
+      </c>
+      <c r="D19">
+        <v>41720.7</v>
+      </c>
+      <c r="E19">
+        <v>375486.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>396979.14</v>
+      </c>
+      <c r="D20">
+        <v>39697.914</v>
+      </c>
+      <c r="E20">
+        <v>357281.226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <v>1796783.46</v>
+      </c>
+      <c r="D21">
+        <v>179678.346</v>
+      </c>
+      <c r="E21">
+        <v>1617105.114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <v>405341.56</v>
+      </c>
+      <c r="D22">
+        <v>40534.156</v>
+      </c>
+      <c r="E22">
+        <v>364807.404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>54</v>
+      </c>
+      <c r="C23">
+        <v>79843.64</v>
+      </c>
+      <c r="D23">
+        <v>7984.364</v>
+      </c>
+      <c r="E23">
+        <v>71859.27600000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>56</v>
+      </c>
+      <c r="C24">
+        <v>4729.44</v>
+      </c>
+      <c r="D24">
+        <v>472.944</v>
+      </c>
+      <c r="E24">
+        <v>4256.495999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>57</v>
+      </c>
+      <c r="C25">
+        <v>4729.44</v>
+      </c>
+      <c r="D25">
+        <v>472.944</v>
+      </c>
+      <c r="E25">
+        <v>4256.495999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>58</v>
+      </c>
+      <c r="C26">
+        <v>4214.01</v>
+      </c>
+      <c r="D26">
+        <v>421.401</v>
+      </c>
+      <c r="E26">
+        <v>3792.609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>59</v>
+      </c>
+      <c r="C27">
+        <v>3950.62</v>
+      </c>
+      <c r="D27">
+        <v>395.062</v>
+      </c>
+      <c r="E27">
+        <v>3555.558</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>60</v>
+      </c>
+      <c r="C28">
+        <v>4619.000000000001</v>
+      </c>
+      <c r="D28">
+        <v>461.9</v>
+      </c>
+      <c r="E28">
+        <v>4157.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>61</v>
+      </c>
+      <c r="C29">
+        <v>237898.15</v>
+      </c>
+      <c r="D29">
+        <v>23789.815</v>
+      </c>
+      <c r="E29">
+        <v>214108.335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>62</v>
+      </c>
+      <c r="C30">
+        <v>185566.33</v>
+      </c>
+      <c r="D30">
+        <v>18556.633</v>
+      </c>
+      <c r="E30">
+        <v>167009.697</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>65</v>
+      </c>
+      <c r="C31">
+        <v>78137.00999999999</v>
+      </c>
+      <c r="D31">
+        <v>7813.700999999998</v>
+      </c>
+      <c r="E31">
+        <v>70323.30899999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>66</v>
+      </c>
+      <c r="C32">
+        <v>562537.39</v>
+      </c>
+      <c r="D32">
+        <v>56253.73899999999</v>
+      </c>
+      <c r="E32">
+        <v>506283.651</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>71</v>
+      </c>
+      <c r="C33">
+        <v>8760.290000000001</v>
+      </c>
+      <c r="D33">
+        <v>876.0289999999999</v>
+      </c>
+      <c r="E33">
+        <v>7884.261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>372</v>
+      </c>
+      <c r="C34">
+        <v>8382444.049999999</v>
+      </c>
+      <c r="D34">
+        <v>838244.4049999999</v>
+      </c>
+      <c r="E34">
+        <v>7544199.645</v>
       </c>
     </row>
   </sheetData>
